--- a/PES/SRB Invoices/1021  Invoice for Norht walk shopping mall (air curtain work).xlsx
+++ b/PES/SRB Invoices/1021  Invoice for Norht walk shopping mall (air curtain work).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Pioneer\PES\SRB Invoices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F47418D-6878-4FB1-B2BB-6158933D4930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB92D5FE-7520-4CDA-9302-B70011FA10FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,10 +85,10 @@
     <t>Invoice # 1021</t>
   </si>
   <si>
-    <t>Dated: 28-12-2023</t>
-  </si>
-  <si>
     <t>Installation charges of Air curtain on the project -  The North Walk shopping mall.</t>
+  </si>
+  <si>
+    <t>Dated: 03-01-2024</t>
   </si>
 </sst>
 </file>
@@ -409,6 +409,54 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -426,54 +474,6 @@
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -992,8 +992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="94" zoomScaleNormal="100" zoomScaleSheetLayoutView="94" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="94" zoomScaleNormal="100" zoomScaleSheetLayoutView="94" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1029,16 +1029,16 @@
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
@@ -1058,11 +1058,11 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
+      <c r="F12" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
       <c r="L12" s="8"/>
     </row>
     <row r="13" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
@@ -1071,11 +1071,11 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="53" t="s">
+      <c r="F13" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
       <c r="L13" s="8"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1095,85 +1095,85 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="56" t="s">
+      <c r="F15" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
       <c r="L15" s="8"/>
     </row>
     <row r="16" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="58"/>
+      <c r="C16" s="52"/>
       <c r="D16" s="33"/>
       <c r="E16" s="4"/>
       <c r="F16" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="55" t="s">
+      <c r="G16" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="55"/>
+      <c r="H16" s="49"/>
       <c r="L16" s="8"/>
     </row>
     <row r="17" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="47"/>
+      <c r="C17" s="41"/>
       <c r="D17" s="34"/>
       <c r="E17" s="3"/>
       <c r="F17" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="57" t="s">
+      <c r="G17" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="57"/>
+      <c r="H17" s="51"/>
       <c r="L17" s="8"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="48"/>
+      <c r="C18" s="42"/>
       <c r="D18" s="24"/>
       <c r="E18" s="3"/>
       <c r="F18" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
       <c r="L18" s="8"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="49"/>
+      <c r="C19" s="43"/>
       <c r="D19" s="35"/>
       <c r="E19" s="3"/>
       <c r="F19" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="G19" s="49" t="s">
+      <c r="G19" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="48"/>
+      <c r="H19" s="42"/>
       <c r="L19" s="8"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1198,11 +1198,11 @@
       <c r="A23" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="50"/>
-      <c r="D23" s="51"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="45"/>
       <c r="E23" s="28" t="s">
         <v>13</v>
       </c>
@@ -1230,9 +1230,9 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="38"/>
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="60"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="54"/>
       <c r="E25" s="9"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
@@ -1241,9 +1241,9 @@
     </row>
     <row r="26" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="38"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="60"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="54"/>
       <c r="E26" s="9"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
@@ -1251,25 +1251,25 @@
       <c r="L26" s="8"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="46">
+      <c r="A27" s="40">
         <v>1</v>
       </c>
-      <c r="B27" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="41"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="43">
+      <c r="B27" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="57"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="59">
         <v>37500</v>
       </c>
-      <c r="F27" s="44">
+      <c r="F27" s="60">
         <v>0.13</v>
       </c>
-      <c r="G27" s="43">
+      <c r="G27" s="59">
         <f>E27*13%</f>
         <v>4875</v>
       </c>
-      <c r="H27" s="54">
+      <c r="H27" s="48">
         <f>E27+G27</f>
         <v>42375</v>
       </c>
@@ -1277,14 +1277,14 @@
       <c r="L27" s="8"/>
     </row>
     <row r="28" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="46"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="54"/>
+      <c r="A28" s="40"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="48"/>
       <c r="I28" s="8"/>
       <c r="L28" s="8"/>
     </row>
@@ -1357,11 +1357,11 @@
     </row>
     <row r="35" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="32"/>
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="39"/>
-      <c r="D35" s="40"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="56"/>
       <c r="E35" s="16">
         <f>SUM(E27:E33)</f>
         <v>37500</v>
@@ -1424,6 +1424,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
     <mergeCell ref="A9:H9"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="B17:C17"/>
@@ -1440,11 +1445,6 @@
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B25:D26"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
